--- a/August'21/25.08.2021/Bank Statement August-2021.xlsx
+++ b/August'21/25.08.2021/Bank Statement August-2021.xlsx
@@ -3574,12 +3574,57 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3596,51 +3641,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="20" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4510,70 +4510,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="386" t="s">
+      <c r="A1" s="376" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="386"/>
-      <c r="C1" s="386"/>
-      <c r="D1" s="386"/>
-      <c r="E1" s="386"/>
-      <c r="F1" s="386"/>
-      <c r="G1" s="386"/>
-      <c r="H1" s="386"/>
-      <c r="I1" s="386"/>
-      <c r="J1" s="386"/>
-      <c r="K1" s="386"/>
-      <c r="L1" s="386"/>
-      <c r="M1" s="386"/>
-      <c r="N1" s="386"/>
-      <c r="O1" s="386"/>
-      <c r="P1" s="386"/>
-      <c r="Q1" s="386"/>
-      <c r="R1" s="386"/>
+      <c r="B1" s="376"/>
+      <c r="C1" s="376"/>
+      <c r="D1" s="376"/>
+      <c r="E1" s="376"/>
+      <c r="F1" s="376"/>
+      <c r="G1" s="376"/>
+      <c r="H1" s="376"/>
+      <c r="I1" s="376"/>
+      <c r="J1" s="376"/>
+      <c r="K1" s="376"/>
+      <c r="L1" s="376"/>
+      <c r="M1" s="376"/>
+      <c r="N1" s="376"/>
+      <c r="O1" s="376"/>
+      <c r="P1" s="376"/>
+      <c r="Q1" s="376"/>
+      <c r="R1" s="376"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="387" t="s">
+      <c r="A2" s="377" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="387"/>
-      <c r="F2" s="387"/>
-      <c r="G2" s="387"/>
-      <c r="H2" s="387"/>
-      <c r="I2" s="387"/>
-      <c r="J2" s="387"/>
-      <c r="K2" s="387"/>
-      <c r="L2" s="387"/>
-      <c r="M2" s="387"/>
-      <c r="N2" s="387"/>
-      <c r="O2" s="387"/>
-      <c r="P2" s="387"/>
-      <c r="Q2" s="387"/>
-      <c r="R2" s="387"/>
+      <c r="B2" s="377"/>
+      <c r="C2" s="377"/>
+      <c r="D2" s="377"/>
+      <c r="E2" s="377"/>
+      <c r="F2" s="377"/>
+      <c r="G2" s="377"/>
+      <c r="H2" s="377"/>
+      <c r="I2" s="377"/>
+      <c r="J2" s="377"/>
+      <c r="K2" s="377"/>
+      <c r="L2" s="377"/>
+      <c r="M2" s="377"/>
+      <c r="N2" s="377"/>
+      <c r="O2" s="377"/>
+      <c r="P2" s="377"/>
+      <c r="Q2" s="377"/>
+      <c r="R2" s="377"/>
     </row>
     <row r="3" spans="1:25" s="91" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="394" t="s">
+      <c r="A3" s="388" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="395"/>
-      <c r="C3" s="395"/>
-      <c r="D3" s="395"/>
-      <c r="E3" s="395"/>
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
-      <c r="K3" s="395"/>
-      <c r="L3" s="395"/>
-      <c r="M3" s="395"/>
-      <c r="N3" s="395"/>
-      <c r="O3" s="395"/>
-      <c r="P3" s="395"/>
-      <c r="Q3" s="395"/>
-      <c r="R3" s="396"/>
+      <c r="B3" s="389"/>
+      <c r="C3" s="389"/>
+      <c r="D3" s="389"/>
+      <c r="E3" s="389"/>
+      <c r="F3" s="389"/>
+      <c r="G3" s="389"/>
+      <c r="H3" s="389"/>
+      <c r="I3" s="389"/>
+      <c r="J3" s="389"/>
+      <c r="K3" s="389"/>
+      <c r="L3" s="389"/>
+      <c r="M3" s="389"/>
+      <c r="N3" s="389"/>
+      <c r="O3" s="389"/>
+      <c r="P3" s="389"/>
+      <c r="Q3" s="389"/>
+      <c r="R3" s="390"/>
       <c r="T3" s="92"/>
       <c r="U3" s="93"/>
       <c r="V3" s="93"/>
@@ -4582,55 +4582,55 @@
       <c r="Y3" s="94"/>
     </row>
     <row r="4" spans="1:25" s="94" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="388" t="s">
+      <c r="A4" s="378" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="390" t="s">
+      <c r="B4" s="380" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="390" t="s">
+      <c r="C4" s="380" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="384" t="s">
+      <c r="D4" s="382" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="384" t="s">
+      <c r="E4" s="382" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="384" t="s">
+      <c r="F4" s="382" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="384" t="s">
+      <c r="G4" s="382" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="384" t="s">
+      <c r="H4" s="382" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="384" t="s">
+      <c r="I4" s="382" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="384" t="s">
+      <c r="J4" s="382" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="397" t="s">
+      <c r="K4" s="391" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="376" t="s">
+      <c r="L4" s="384" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="378" t="s">
+      <c r="M4" s="393" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="380" t="s">
+      <c r="N4" s="395" t="s">
         <v>9</v>
       </c>
-      <c r="O4" s="382" t="s">
+      <c r="O4" s="397" t="s">
         <v>30</v>
       </c>
-      <c r="P4" s="376" t="s">
+      <c r="P4" s="384" t="s">
         <v>223</v>
       </c>
-      <c r="Q4" s="392" t="s">
+      <c r="Q4" s="386" t="s">
         <v>118</v>
       </c>
       <c r="R4" s="282" t="s">
@@ -4643,23 +4643,23 @@
       <c r="X4" s="93"/>
     </row>
     <row r="5" spans="1:25" s="94" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="389"/>
-      <c r="B5" s="391"/>
-      <c r="C5" s="391"/>
-      <c r="D5" s="385"/>
-      <c r="E5" s="385"/>
-      <c r="F5" s="385"/>
-      <c r="G5" s="385"/>
-      <c r="H5" s="385"/>
-      <c r="I5" s="385"/>
-      <c r="J5" s="385"/>
-      <c r="K5" s="398"/>
-      <c r="L5" s="377"/>
-      <c r="M5" s="379"/>
-      <c r="N5" s="381"/>
-      <c r="O5" s="383"/>
-      <c r="P5" s="377"/>
-      <c r="Q5" s="393"/>
+      <c r="A5" s="379"/>
+      <c r="B5" s="381"/>
+      <c r="C5" s="381"/>
+      <c r="D5" s="383"/>
+      <c r="E5" s="383"/>
+      <c r="F5" s="383"/>
+      <c r="G5" s="383"/>
+      <c r="H5" s="383"/>
+      <c r="I5" s="383"/>
+      <c r="J5" s="383"/>
+      <c r="K5" s="392"/>
+      <c r="L5" s="385"/>
+      <c r="M5" s="394"/>
+      <c r="N5" s="396"/>
+      <c r="O5" s="398"/>
+      <c r="P5" s="385"/>
+      <c r="Q5" s="387"/>
       <c r="R5" s="283" t="s">
         <v>32</v>
       </c>
@@ -7689,6 +7689,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A2:R2"/>
     <mergeCell ref="A4:A5"/>
@@ -7705,10 +7709,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -10309,7 +10309,7 @@
   <dimension ref="B1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F19"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="360">
-        <v>1292985.3</v>
+        <v>1261297.3929999999</v>
       </c>
       <c r="G8" s="4"/>
       <c r="K8" s="118" t="s">
@@ -10441,7 +10441,7 @@
         <v>36</v>
       </c>
       <c r="C9" s="361">
-        <v>57877.853499999997</v>
+        <v>58191.392999999996</v>
       </c>
       <c r="D9" s="421"/>
       <c r="E9" s="359" t="s">
@@ -10469,7 +10469,7 @@
         <v>7</v>
       </c>
       <c r="F10" s="362">
-        <v>227865.55349999992</v>
+        <v>259867</v>
       </c>
       <c r="G10" s="3"/>
       <c r="K10" s="118" t="s">
@@ -10576,7 +10576,7 @@
       </c>
       <c r="C15" s="350">
         <f>C9-C11-C12-C14</f>
-        <v>15152.853499999997</v>
+        <v>15466.392999999996</v>
       </c>
       <c r="D15" s="421"/>
       <c r="E15" s="359" t="s">
@@ -10632,7 +10632,7 @@
       </c>
       <c r="C18" s="361">
         <f>C8+C9-C11-C14-C16</f>
-        <v>2015152.8535</v>
+        <v>2015466.3929999999</v>
       </c>
       <c r="D18" s="421"/>
       <c r="E18" s="359" t="s">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="F18" s="363">
         <f>F8+F9+F10+F11+F12+F13+F15-F14+F16</f>
-        <v>2015152.8535000002</v>
+        <v>2015466.3930000002</v>
       </c>
       <c r="G18" s="20"/>
       <c r="K18" s="118" t="s">
